--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/7.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/7.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1024166564654279</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.627139791475744</v>
+        <v>-1.627127199322773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02283991859979385</v>
+        <v>0.02207494530684172</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2289008295654316</v>
+        <v>-0.2276164299624503</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1013350379121113</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.651804671106526</v>
+        <v>-1.651559911133163</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02490975374430426</v>
+        <v>0.0236174840457164</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2038692034793868</v>
+        <v>-0.2026855411001687</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1101204667763845</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705178085490711</v>
+        <v>-1.705359884699221</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01498218686594037</v>
+        <v>-0.01652000354745114</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.213790246000945</v>
+        <v>-0.2126726924248216</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1240790157802473</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.817851883260338</v>
+        <v>-1.817257691042047</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02045662536982416</v>
+        <v>-0.02286802266365682</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2332514184167067</v>
+        <v>-0.232242472159953</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.135055377389336</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782851994079096</v>
+        <v>-1.782948009245496</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00149779333407783</v>
+        <v>-0.002031157535878312</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2281012278518109</v>
+        <v>-0.2268215503061934</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.138364155847241</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.601034684348972</v>
+        <v>-1.602741708086022</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06456559148635378</v>
+        <v>0.06145847774090623</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2111758002404646</v>
+        <v>-0.209806403604933</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1336490914893415</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.340710809915294</v>
+        <v>-1.342297421189565</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1014306933263372</v>
+        <v>0.09657956639448848</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2010580053287438</v>
+        <v>-0.1992589014730971</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1224791623060405</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9342715274608334</v>
+        <v>-0.9354056082377306</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1974978023566821</v>
+        <v>0.1933172075705074</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1770038451170267</v>
+        <v>-0.1744492120831556</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.10720492556614</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4962763096625369</v>
+        <v>-0.4951792183349903</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2086308396016418</v>
+        <v>0.2054403028427653</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1299532655431065</v>
+        <v>-0.1272428046162267</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08972540655530013</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02339846710753515</v>
+        <v>-0.02001432599673867</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1836574522230851</v>
+        <v>0.1798294377200819</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06443157158072278</v>
+        <v>-0.06203748849722443</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.0686678584113808</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5252668221189734</v>
+        <v>0.5322586150557911</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1452938841796235</v>
+        <v>0.1426558281323235</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02847333303492902</v>
+        <v>0.03105629841298345</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03893507870403036</v>
       </c>
       <c r="E13" t="n">
-        <v>1.091600475982082</v>
+        <v>1.100947001524366</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02586990540829768</v>
+        <v>0.02287454702046247</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1316534344744317</v>
+        <v>0.1333942996225903</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.003503940356012641</v>
       </c>
       <c r="E14" t="n">
-        <v>1.693842228059423</v>
+        <v>1.706391882513554</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1778884438631977</v>
+        <v>-0.1818675642018458</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2507405731537992</v>
+        <v>0.2527175411701528</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.06030207254458204</v>
       </c>
       <c r="E15" t="n">
-        <v>2.333566097472298</v>
+        <v>2.348928524096193</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4523092335472448</v>
+        <v>-0.4557941118818045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3744238476673646</v>
+        <v>0.3765928460165169</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1324260727924069</v>
       </c>
       <c r="E16" t="n">
-        <v>2.952651428166678</v>
+        <v>2.970796720597033</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.687941470025079</v>
+        <v>-0.6913460733844524</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5227609836778627</v>
+        <v>0.5252951544631568</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2203289510209359</v>
       </c>
       <c r="E17" t="n">
-        <v>3.549094493801148</v>
+        <v>3.568865747983806</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9322898373871159</v>
+        <v>-0.9353387124250753</v>
       </c>
       <c r="G17" t="n">
-        <v>0.684667738533094</v>
+        <v>0.6873152386951218</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3218967188307018</v>
       </c>
       <c r="E18" t="n">
-        <v>4.115670546608936</v>
+        <v>4.13806254262856</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.154615316213474</v>
+        <v>-1.157716133882436</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8187883338400044</v>
+        <v>0.822084329880008</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4297837703078187</v>
       </c>
       <c r="E19" t="n">
-        <v>4.588600331794941</v>
+        <v>4.612808745880546</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.368802329173147</v>
+        <v>-1.370518010015365</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9938066679756704</v>
+        <v>0.9972616399469254</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5359592783356877</v>
       </c>
       <c r="E20" t="n">
-        <v>4.954222937405393</v>
+        <v>4.97995815003866</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.541720134791438</v>
+        <v>-1.543655391301077</v>
       </c>
       <c r="G20" t="n">
-        <v>1.129924693547511</v>
+        <v>1.132658764761211</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6374642669745157</v>
       </c>
       <c r="E21" t="n">
-        <v>5.292799172454535</v>
+        <v>5.317871723037734</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.754728207429256</v>
+        <v>-1.757726713855334</v>
       </c>
       <c r="G21" t="n">
-        <v>1.262335904088689</v>
+        <v>1.265125065971634</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7331145861823516</v>
       </c>
       <c r="E22" t="n">
-        <v>5.587540548994574</v>
+        <v>5.614144620182798</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.905540488508</v>
+        <v>-1.909383456192655</v>
       </c>
       <c r="G22" t="n">
-        <v>1.369948443373775</v>
+        <v>1.372902877264456</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8198654637841364</v>
       </c>
       <c r="E23" t="n">
-        <v>5.750309866328278</v>
+        <v>5.7777340014787</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.033461809505667</v>
+        <v>-2.038362518039837</v>
       </c>
       <c r="G23" t="n">
-        <v>1.478533726475824</v>
+        <v>1.482262577774185</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8947196256653566</v>
       </c>
       <c r="E24" t="n">
-        <v>5.907784183337927</v>
+        <v>5.936464385747146</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.125769373864785</v>
+        <v>-2.131483850284668</v>
       </c>
       <c r="G24" t="n">
-        <v>1.519790341664236</v>
+        <v>1.522500802591116</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9572724629676022</v>
       </c>
       <c r="E25" t="n">
-        <v>6.003882772750697</v>
+        <v>6.031871980765667</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.158983538352912</v>
+        <v>-2.164999439434523</v>
       </c>
       <c r="G25" t="n">
-        <v>1.59251317310657</v>
+        <v>1.594858461597308</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.00977454094198</v>
       </c>
       <c r="E26" t="n">
-        <v>6.062160830716856</v>
+        <v>6.088542965208976</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.183012514258688</v>
+        <v>-2.188352374127701</v>
       </c>
       <c r="G26" t="n">
-        <v>1.661233273923437</v>
+        <v>1.664173541642027</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.054256301056939</v>
       </c>
       <c r="E27" t="n">
-        <v>6.05127491447394</v>
+        <v>6.077158084904609</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.181880794510473</v>
+        <v>-2.185043785934727</v>
       </c>
       <c r="G27" t="n">
-        <v>1.63523047803955</v>
+        <v>1.637479751363889</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.090559162701578</v>
       </c>
       <c r="E28" t="n">
-        <v>5.991921801447933</v>
+        <v>6.017266657339118</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.198470956048982</v>
+        <v>-2.200291309162766</v>
       </c>
       <c r="G28" t="n">
-        <v>1.629667894464873</v>
+        <v>1.631182100859564</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.117885448328888</v>
       </c>
       <c r="E29" t="n">
-        <v>5.891922792652579</v>
+        <v>5.916422400275625</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.15283305863643</v>
+        <v>-2.153101428896611</v>
       </c>
       <c r="G29" t="n">
-        <v>1.603871295085876</v>
+        <v>1.605102178038733</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.13581536266245</v>
       </c>
       <c r="E30" t="n">
-        <v>5.762933499681109</v>
+        <v>5.78657998894041</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.154689614190004</v>
+        <v>-2.153780618147453</v>
       </c>
       <c r="G30" t="n">
-        <v>1.538835973031975</v>
+        <v>1.540011765315586</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.14359744831662</v>
       </c>
       <c r="E31" t="n">
-        <v>5.566432952577932</v>
+        <v>5.589100401943783</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.102778463569507</v>
+        <v>-2.099583204753267</v>
       </c>
       <c r="G31" t="n">
-        <v>1.47662916333905</v>
+        <v>1.477298121465603</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.140592437892688</v>
       </c>
       <c r="E32" t="n">
-        <v>5.389461260712731</v>
+        <v>5.409419823170825</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.028132967770504</v>
+        <v>-2.024308888315304</v>
       </c>
       <c r="G32" t="n">
-        <v>1.433960652998831</v>
+        <v>1.43415268333163</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.126038200106491</v>
       </c>
       <c r="E33" t="n">
-        <v>5.127284765773283</v>
+        <v>5.145104236245528</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.994545760750629</v>
+        <v>-1.990036982977663</v>
       </c>
       <c r="G33" t="n">
-        <v>1.374796422267381</v>
+        <v>1.374566615475671</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.100007802386947</v>
       </c>
       <c r="E34" t="n">
-        <v>4.906980327498674</v>
+        <v>4.921637593556226</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.927968686967413</v>
+        <v>-1.92233763356096</v>
       </c>
       <c r="G34" t="n">
-        <v>1.279481694377018</v>
+        <v>1.279144854285059</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.064307849922135</v>
       </c>
       <c r="E35" t="n">
-        <v>4.620760690481357</v>
+        <v>4.632735827956213</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.890924933957162</v>
+        <v>-1.885378090573699</v>
       </c>
       <c r="G35" t="n">
-        <v>1.195266949330067</v>
+        <v>1.194080138912606</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.020607003417392</v>
       </c>
       <c r="E36" t="n">
-        <v>4.252539379301639</v>
+        <v>4.261346016285316</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.853949650778688</v>
+        <v>-1.847223080063809</v>
       </c>
       <c r="G36" t="n">
-        <v>1.146160700783728</v>
+        <v>1.144846394817442</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9699249522289923</v>
       </c>
       <c r="E37" t="n">
-        <v>3.942514277093769</v>
+        <v>3.950168732080655</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.812932286496713</v>
+        <v>-1.805790961743372</v>
       </c>
       <c r="G37" t="n">
-        <v>1.06363173021569</v>
+        <v>1.062156874299031</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9121553400482886</v>
       </c>
       <c r="E38" t="n">
-        <v>3.660848277394375</v>
+        <v>3.666107075278641</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.736176031056046</v>
+        <v>-1.728902488696515</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9871674553220241</v>
+        <v>0.9846836531486116</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8477921060696382</v>
       </c>
       <c r="E39" t="n">
-        <v>3.320030639116501</v>
+        <v>3.323200713626801</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.696435196281446</v>
+        <v>-1.690623917685604</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9038561972507</v>
+        <v>0.9012448995284622</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7771719170995949</v>
       </c>
       <c r="E40" t="n">
-        <v>2.994073315362827</v>
+        <v>2.99521447922577</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.656017533284687</v>
+        <v>-1.651600048620756</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8432910895012922</v>
+        <v>0.8403224894385191</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7014053539129871</v>
       </c>
       <c r="E41" t="n">
-        <v>2.673190629256226</v>
+        <v>2.673540061501155</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.635680419227921</v>
+        <v>-1.631303859061145</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7885435564242116</v>
+        <v>0.7858173553061188</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6224245569751046</v>
       </c>
       <c r="E42" t="n">
-        <v>2.338269266606745</v>
+        <v>2.338107142637251</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.583583534351111</v>
+        <v>-1.579550110352778</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7281594608737534</v>
+        <v>0.7245187546461849</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5422324748936048</v>
       </c>
       <c r="E43" t="n">
-        <v>2.082557268198478</v>
+        <v>2.081361013666289</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.530639040177481</v>
+        <v>-1.526641818618937</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6521831319076905</v>
+        <v>0.648621126636187</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4626382848152262</v>
       </c>
       <c r="E44" t="n">
-        <v>1.828839552016898</v>
+        <v>1.8278494939896</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.510528584874182</v>
+        <v>-1.507542670601075</v>
       </c>
       <c r="G44" t="n">
-        <v>0.565368107272351</v>
+        <v>0.5626356100777731</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3863386723285145</v>
       </c>
       <c r="E45" t="n">
-        <v>1.603156690404806</v>
+        <v>1.602209130893783</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.429154157331619</v>
+        <v>-1.427843786413136</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5098162504242858</v>
+        <v>0.5077322491076838</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3149904863091862</v>
       </c>
       <c r="E46" t="n">
-        <v>1.391945360593952</v>
+        <v>1.39010375822203</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.368117630855381</v>
+        <v>-1.36588881977962</v>
       </c>
       <c r="G46" t="n">
-        <v>0.447126216861122</v>
+        <v>0.4448218528675378</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2491076419511547</v>
       </c>
       <c r="E47" t="n">
-        <v>1.238928665735826</v>
+        <v>1.237793797949369</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.320187961602215</v>
+        <v>-1.318111830381219</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3834854757486926</v>
+        <v>0.3809607490781263</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1896321572182916</v>
       </c>
       <c r="E48" t="n">
-        <v>1.029429868728948</v>
+        <v>1.027999085347685</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.241315437452959</v>
+        <v>-1.239893311176864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2977864306703554</v>
+        <v>0.2955560455754723</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1369795267305707</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8721853585110089</v>
+        <v>0.8706270795809212</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.170278380489537</v>
+        <v>-1.169128559521427</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2521996888792449</v>
+        <v>0.2505516908592431</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.09051259555043335</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7720793164154065</v>
+        <v>0.7714260984800667</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.097528790722141</v>
+        <v>-1.096340406285559</v>
       </c>
       <c r="G50" t="n">
-        <v>0.214970988622241</v>
+        <v>0.2132804920859641</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04901713784335512</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6368285753794023</v>
+        <v>0.6359424026141099</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.065252741630309</v>
+        <v>-1.064168242455733</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1732264275062255</v>
+        <v>0.171512320683129</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01068581704571856</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4635904568699272</v>
+        <v>0.4631733418027826</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.02824676507897</v>
+        <v>-1.027330685950373</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1304430137701515</v>
+        <v>0.1287572392912384</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02577049482651998</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4019849224813396</v>
+        <v>0.4023815752999074</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.025097939826808</v>
+        <v>-1.02570551120763</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1032817398129868</v>
+        <v>0.101743923131476</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06128971173884195</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2463553558818554</v>
+        <v>0.246311283346459</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9643415887541618</v>
+        <v>-0.9649649003261969</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0561288489961821</v>
+        <v>0.05499712924796691</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.09650201921011445</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1277010724608457</v>
+        <v>0.1276916283461179</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.937988573615785</v>
+        <v>-0.9399741987373058</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02898174121110914</v>
+        <v>0.02786261361586435</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1318507121528968</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03871704947635389</v>
+        <v>0.03926008607320263</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9216659953278968</v>
+        <v>-0.923768097864394</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.007398562739513658</v>
+        <v>-0.008073816942551652</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1673519724383031</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07417160190333144</v>
+        <v>-0.07324922669824924</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9222334292211257</v>
+        <v>-0.9245126089087692</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05056288910294242</v>
+        <v>-0.05062427584867315</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2026133617646151</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1282186964714332</v>
+        <v>-0.1284075787659892</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9024362037229664</v>
+        <v>-0.9046846900377444</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08033546078234492</v>
+        <v>-0.08076044594509611</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2370676722430756</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2071825137297248</v>
+        <v>-0.2077932331487894</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9090462970228685</v>
+        <v>-0.9125658037780969</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1054725461495169</v>
+        <v>-0.1057196671515611</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2699565786896271</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2993067048612114</v>
+        <v>-0.3008523916383287</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9053308248870383</v>
+        <v>-0.9088282953745684</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1237390380522114</v>
+        <v>-0.1245669721100156</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3008670940122564</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3911947931245029</v>
+        <v>-0.3933858277413535</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8871760883419562</v>
+        <v>-0.8905712475866018</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.144681362461117</v>
+        <v>-0.1462018649322935</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3306136720533253</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4988214985816801</v>
+        <v>-0.501553995776258</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8762547566688114</v>
+        <v>-0.879469690724068</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1742760699798126</v>
+        <v>-0.1754738985311224</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3600593361484637</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5632177688723339</v>
+        <v>-0.5655835196116488</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.884678119996452</v>
+        <v>-0.8886060847136579</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1948547959716978</v>
+        <v>-0.1965122381064274</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3891013388566804</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6830793249593812</v>
+        <v>-0.686125051959098</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9055991951472201</v>
+        <v>-0.9100969547863368</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.231729341926409</v>
+        <v>-0.233514279609964</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4170428333366404</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.804126117444768</v>
+        <v>-0.807900615297647</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9402646052651857</v>
+        <v>-0.9444192287358589</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2773412680234603</v>
+        <v>-0.2791608341276839</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4429681114446019</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9016885446403485</v>
+        <v>-0.9047382066878686</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9698333414683799</v>
+        <v>-0.9737188076693106</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3027427886030108</v>
+        <v>-0.3054013068988877</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4657517219855445</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9434811133395637</v>
+        <v>-0.9475035192040476</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.009329416269617</v>
+        <v>-1.012990584745763</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3418949402262441</v>
+        <v>-0.3450524225835733</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4848716648795035</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9894086302704359</v>
+        <v>-0.9932216915917867</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.018498864660754</v>
+        <v>-1.02327365166522</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3645466494008823</v>
+        <v>-0.367822183192309</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5000816440211168</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.053856843192092</v>
+        <v>-1.05902119992908</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.065862674039814</v>
+        <v>-1.071264707664118</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3841667977478954</v>
+        <v>-0.3876784344075172</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5108676118009615</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.078877451144288</v>
+        <v>-1.08543796284187</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.107974768620653</v>
+        <v>-1.114677729048712</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3970910687528953</v>
+        <v>-0.4009930621545997</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5168549424183214</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.097611426726009</v>
+        <v>-1.105154126355282</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.116424890273356</v>
+        <v>-1.123351361416639</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.42689039875736</v>
+        <v>-0.4308002622546709</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5179323408395894</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.120060087433999</v>
+        <v>-1.129716694743179</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.158426016506143</v>
+        <v>-1.165967929125855</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4038184264773345</v>
+        <v>-0.4083153991068905</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5139405603541574</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.094649122739721</v>
+        <v>-1.104962883032044</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.184206088684366</v>
+        <v>-1.190846875357134</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4097430344499103</v>
+        <v>-0.414929427454596</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5046210509696433</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.097448515746954</v>
+        <v>-1.108571321867626</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.207520459909072</v>
+        <v>-1.214054213281591</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4150112764489037</v>
+        <v>-0.4195916720918887</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4897262918108545</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.05435029818662</v>
+        <v>-1.066566260587035</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.223821788938823</v>
+        <v>-1.230569608911839</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4218315013014995</v>
+        <v>-0.426712534596653</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4693368784362705</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9648059243949455</v>
+        <v>-0.9773571528681971</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.237396916850481</v>
+        <v>-1.245499180277376</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3949425326523199</v>
+        <v>-0.4000266144141211</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4443793978686489</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9027242492221644</v>
+        <v>-0.9157665716612619</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.247461195112077</v>
+        <v>-1.255115650098962</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3776692468151662</v>
+        <v>-0.382772216806423</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4160040454871403</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7554039295640265</v>
+        <v>-0.7675285988554057</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.233605891796828</v>
+        <v>-1.241409091590676</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.333303943862185</v>
+        <v>-0.338768938251341</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3848998771806135</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6420336283332232</v>
+        <v>-0.6540260800184131</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.254804781322505</v>
+        <v>-1.261972864400909</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3191535119616918</v>
+        <v>-0.3241714849203984</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3512862456814633</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4861443485787244</v>
+        <v>-0.4968382344888412</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.251714194777832</v>
+        <v>-1.257948097507743</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2962310714981899</v>
+        <v>-0.3015937546444613</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3158049463505318</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3416320790329869</v>
+        <v>-0.3519702366216898</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.271143886811167</v>
+        <v>-1.276135888454372</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2731213227592532</v>
+        <v>-0.2783628064331845</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2788602497490194</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1817101622897157</v>
+        <v>-0.1910393736216649</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.283229992634075</v>
+        <v>-1.288177134732323</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2480660863863888</v>
+        <v>-0.2530840593450954</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2406237945273598</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0119555763759996</v>
+        <v>0.00344328096800548</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.265113032547904</v>
+        <v>-1.268633326312693</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1843466443178944</v>
+        <v>-0.188736583647202</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2011280903721127</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1755181993468393</v>
+        <v>0.1674513513501732</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.263756228065342</v>
+        <v>-1.267188376759339</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1606214541025291</v>
+        <v>-0.165080650273174</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1609719903766757</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3437682512609124</v>
+        <v>0.3367056274636362</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.187246306617159</v>
+        <v>-1.188891943608479</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1161664320596338</v>
+        <v>-0.1199739843140601</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1197377366830913</v>
       </c>
       <c r="E86" t="n">
-        <v>0.544172365784916</v>
+        <v>0.5389891208184728</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.118178347574484</v>
+        <v>-1.119294327131487</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06458897349285285</v>
+        <v>-0.06758747991893066</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.07695444170956775</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7321558954227358</v>
+        <v>0.7278084546097033</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.038558164342611</v>
+        <v>-1.037887632196936</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01972942853578324</v>
+        <v>-0.02194249942033201</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03371434967341803</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8870456730352086</v>
+        <v>0.8844091910070301</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9148945650680613</v>
+        <v>-0.9133960988645831</v>
       </c>
       <c r="G88" t="n">
-        <v>0.004098072922466566</v>
+        <v>0.002102216676657294</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.005726846071515296</v>
       </c>
       <c r="E89" t="n">
-        <v>1.026069337904971</v>
+        <v>1.024122276251922</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8119238081716916</v>
+        <v>-0.8086419783037797</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03940489583236229</v>
+        <v>0.03654490308895894</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0368035558611555</v>
       </c>
       <c r="E90" t="n">
-        <v>1.124042584091211</v>
+        <v>1.124272390882921</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6674461670466227</v>
+        <v>-0.6636984275188058</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05669077382248645</v>
+        <v>0.05418808341961835</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05670975162602032</v>
       </c>
       <c r="E91" t="n">
-        <v>1.223265601459763</v>
+        <v>1.224113997766144</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4946991425029936</v>
+        <v>-0.4904146624548131</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03054316817943942</v>
+        <v>0.0284292604995326</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06460001868468587</v>
       </c>
       <c r="E92" t="n">
-        <v>1.258410300400165</v>
+        <v>1.260458099276977</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3471584601678736</v>
+        <v>-0.3415502300386793</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05753130003326101</v>
+        <v>0.0556692354127623</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06089068399076391</v>
       </c>
       <c r="E93" t="n">
-        <v>1.286070538418782</v>
+        <v>1.289172930106866</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2399661839881755</v>
+        <v>-0.2341029627613304</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04391760865313137</v>
+        <v>0.04296690110386575</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04793487221430165</v>
       </c>
       <c r="E94" t="n">
-        <v>1.23524231295374</v>
+        <v>1.239370965108912</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1141091890680938</v>
+        <v>-0.1074337739746576</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06197318199357155</v>
+        <v>0.06055499076527963</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03102420255442547</v>
       </c>
       <c r="E95" t="n">
-        <v>1.205844357825207</v>
+        <v>1.209751073284276</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.02391002332195787</v>
+        <v>-0.0184749352961066</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01861525127822281</v>
+        <v>0.01711206301738065</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01504532782777625</v>
       </c>
       <c r="E96" t="n">
-        <v>1.117625308133668</v>
+        <v>1.12131953101136</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05492944642575098</v>
+        <v>0.05984668216069432</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02274682319131666</v>
+        <v>-0.02425630752864402</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.0041252808674129</v>
       </c>
       <c r="E97" t="n">
-        <v>1.058166735826534</v>
+        <v>1.061007840340482</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1027780536941706</v>
+        <v>0.1077692683278151</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.009386548889716425</v>
+        <v>-0.01088501509319468</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0003472081240725057</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9558129944257144</v>
+        <v>0.9591861174026618</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1004359132416752</v>
+        <v>0.1047298374045834</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06253015648219155</v>
+        <v>-0.06395149574872606</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.002130099700537666</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8995276446671231</v>
+        <v>0.9018099723930091</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1146760642320825</v>
+        <v>0.1186441664368815</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05389823562097858</v>
+        <v>-0.05571937574432347</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.008890004140962939</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8478179684941529</v>
+        <v>0.8495808699100097</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1082099936817793</v>
+        <v>0.1117751469915253</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06238692074215318</v>
+        <v>-0.06398927220763728</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01474509970412889</v>
       </c>
       <c r="E101" t="n">
-        <v>0.768098622057637</v>
+        <v>0.7696931034275146</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1027654615412002</v>
+        <v>0.106130714422541</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06063031540278162</v>
+        <v>-0.06203906251634574</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.01315274871145862</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7454280246535432</v>
+        <v>0.7466966840653115</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1031070236905224</v>
+        <v>0.1058285027512513</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06097345157122517</v>
+        <v>-0.06209415318559126</v>
       </c>
     </row>
   </sheetData>
